--- a/Questions/Questions_Nikketan.xlsx
+++ b/Questions/Questions_Nikketan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="305">
   <si>
     <t xml:space="preserve">Generally, there are __  headers in most HTML pages</t>
   </si>
@@ -91,21 +91,6 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">To start a list at the count of 3, use:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ol begin=”3”&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ol list=”3”&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ol start=”3”&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ol num=”3”&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Which function among the following lets to register a function to be invoked repeatedly after a certain time?</t>
   </si>
   <si>
@@ -121,21 +106,6 @@
     <t xml:space="preserve">settime()</t>
   </si>
   <si>
-    <t xml:space="preserve"> Which of the following is not a reserved word in JavaScript ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">throws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short</t>
-  </si>
-  <si>
     <t xml:space="preserve">What is the method in JavaScript used to remove the whitespace at the beginning and end of any string ?</t>
   </si>
   <si>
@@ -166,6 +136,171 @@
     <t xml:space="preserve">print.console(5)</t>
   </si>
   <si>
+    <t xml:space="preserve">In JavaScript, the statement a===b refers to _________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both a and b are equal in value, type and reference address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both a and b are equal in value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both a and b are equal in value and type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no such statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To start a list using circles, use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul “round”&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul type=”circle”&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul type=”round”&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul=”round”&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In CSS, What does screen media type is used for?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For user with all devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For use with handheld devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For use with computer screens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For use with television-type devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which property is used to add space inside the text field?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">padding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What property can you use to set the spacing in between lines of text?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line-spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line-height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letter-spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you wanted to put an HTML element at a certain position on the page regardless of the other elements, what value would you give the position property?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the HTML tag under which one can write the JavaScript code?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;javascript&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;scripted&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;script&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;js&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is the correct syntax to display “GeeksforGeeks” in an alert box using JavaScript?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alertbox(“GeeksforGeeks”);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> msg(“GeeksforGeeks”);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> msgbox(“GeeksforGeeks”);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alert(“GeeksforGeeks”);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is not a reserved word in JavaScript?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> throws</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is the function called in JavaScript?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call Geekfunc();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call function GeekFunc();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geekfunc();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function Geekfunc();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to initialize an array in JavaScript?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var Geeks= “Geek1”, “Geek2”, “Geek3”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var Geeks=(1:Geek1, 2:Geek2, 3:Geek3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var Geeks=(1=Geek1, 2=Geek2, 3=Geek3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var Geeks=[“Geek1”, “Geek2”, “Geek3”]</t>
+  </si>
+  <si>
     <t xml:space="preserve">In JavaScript, we do not have datatypes like integer and float. What is the function that can be used to check if the number is an integer or not?</t>
   </si>
   <si>
@@ -181,22 +316,49 @@
     <t xml:space="preserve">ifinteger(value)</t>
   </si>
   <si>
-    <t xml:space="preserve">In JavaScript, the statement a===b refers to _________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both a and b are equal in value, type and reference address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both a and b are equal in value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both a and b are equal in value and type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is no such statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First browser to support JavaScript ? </t>
+    <t xml:space="preserve">Which of the following is an advantage of using JavaScript?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased interactivity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less server interaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediate feedback from the users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which function of an Array object calls a function for each element in the array?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forEach()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forEvery()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript is a ________ Side Scripting Language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which was the first browser to support JavaScript?</t>
   </si>
   <si>
     <t xml:space="preserve">Mozilla Firefox</t>
@@ -208,79 +370,599 @@
     <t xml:space="preserve">Google Chrome</t>
   </si>
   <si>
-    <t xml:space="preserve">Internet Explorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To start a list using circles, use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ul “round”&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ul type=”circle”&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ul type=”round”&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ul=”round”&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In CSS, What does screen media type is used for?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For user with all devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For use with handheld devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For use with computer screens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For use with television-type devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which property is used to add space inside the text field?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">padding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">margin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What property can you use to set the spacing in between lines of text?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line-spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">line-height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letter-spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you wanted to put an HTML element at a certain position on the page regardless of the other elements, what value would you give the position property?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absolute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relative</t>
+    <t xml:space="preserve">IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A small piece of program that can add interactivity to your website is called as:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Marquee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   All of above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For checking a regular expression in input fields of HTML forms which attribute is used?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;checker&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;valid input&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;pattern&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   None of them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags that are used to tell meaning of enclosed text (e.g. &lt;strong&gt; &lt;/strong&gt; ) these type of tags are called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Similar tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Defined tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Physical tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Logical tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cols attribute in forms text area specifies what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   The visible width of a text area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    The visible number of lines in a text area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Size of a text area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Size of a text field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non breaking space is denoted by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &amp;nbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   #nbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &amp;nonbreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In HTML tables space between cell content and cell border is called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Cell spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Cell difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Cell padding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In image tag " alt " attribute specifies what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Alternative text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Alternative image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Link of image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which tag we can use for adding an emphasized text in web document?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;emphasized&gt; &lt;/emphasized&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;emp&gt; &lt;/emp&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;em&gt; &lt;/em&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;mark&gt; &lt;/mark&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window.localStorage HTML object stores data with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Expiration Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    No expiration date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   One session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Both B and C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which attribute is used to provide an advisory text about an  element or it’s content ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B)title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C)dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is the founder of HTML ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HakonWium Lie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Cailliau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert E. Kahn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Berners Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following input control accepts only numerical value in web form 2.0 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct HTML tag for large heading is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;head&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h6&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;heading&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The attribute of &lt;form&gt; tag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both (A &amp; B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of these</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a&gt;&amp;&lt;/a&gt;are the tags used for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aligned text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio –Voiced text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding links to your page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">__________ javaScript also called server-side javascript.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiveWire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many new form elements are introduced in HTML5 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The default character encoding in HTML5 is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTF-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTF-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTF-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO-8859-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the new form elements are introduced in HTML 5 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1),(2) &amp; (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2),(3) &amp; (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3),(4) &amp; (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4),(5) &amp;(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How doyou insert a comment in CSS ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//comment//</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*comment*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/comment/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-comment-&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For handling CSS prefixes chrome uses __________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-chr-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-ms-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-webkit-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-moz-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one of the following is used to identify anchor link ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which tag supports non-englishlanguage ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;input&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;audio&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;embed&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;bdo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does &lt;main&gt; include ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which tag is used for stopping duplicate content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Canonical tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) Image alt tag
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) Nofollow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D)Meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which of the following is not a type of attribute for input tag?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) day
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which of the following can't be done with client-side JavaScript?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Validating a form
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) Sending a form's contents by email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) Storing the form's contents to a database file on the server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D) None of the above</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we want to use a nice looking green dotted border around an image, which css property will we use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) border-color
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) border-decoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) border-style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D) border-line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbol used at the beginning of the HREF text is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) #
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) &amp; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D) ^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How do you display a border like this:
+The top border = 10 pixels
+The bottom border = 5 pixels
+The left border = 20 pixels
+The right border = 1pixel?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) border-width:10px 20px 5px 1px
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B)border-width:10px 1px 5px 20px.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) border-width:5px 20px 10px 1px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D) border-width:10px 5px 20px 1px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following attributes of text box control allow to limit the maximum character?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a)size
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b)len</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c)maxlength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d)all of these</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HTML is a subset of ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a)SGMT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b)SGML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c)SGMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d)None of these</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which of the following attribute you’ll use with TD tag to merge two cells horizontally?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a)merge=colspan2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b)rowspan=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c)colspan=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d)merge=row2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. When trying to access a URL, the following message is displayed on the browser:
+Server; Error 403.What could be the reason for the message?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.. The requested HTML file is not available
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. The path to the interpreter of the script file is invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. The first line of the output from the script is not a valid HTTP header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d. The requested HTML file or CGI script has insufficient permission. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semantic elements are elements which ____________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. describe its meaning only to the developer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. do not have any meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. are used to describe a page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d. clearly describe its meaning to the browser and the developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.The &lt;embed&gt; element can contain an alternative text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. True
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. False </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.Which HTML is a container for meta data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.&lt;body&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b.&lt;html&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c.&lt;head&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d.&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many HTML colors are supported by all the browsers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. 140 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+c. 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+d. 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we want to wrap a block of text around an image, which css property will we use ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.
+wrap
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.
+push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.
+Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.
+Align</t>
   </si>
 </sst>
 </file>
@@ -290,7 +972,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -312,13 +994,32 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -355,7 +1056,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,6 +1067,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -385,15 +1098,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.45"/>
@@ -500,7 +1214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -537,7 +1251,7 @@
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,10 +1271,10 @@
         <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -577,10 +1291,10 @@
         <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -600,7 +1314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -620,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -637,10 +1351,10 @@
         <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -651,114 +1365,1113 @@
         <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="2" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="2" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0"/>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0"/>
+      <c r="C74" s="0"/>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0"/>
+      <c r="C78" s="0"/>
+      <c r="D78" s="0"/>
+      <c r="E78" s="0"/>
+      <c r="F78" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
